--- a/马虎大意问题点总结.xlsx
+++ b/马虎大意问题点总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>错因</t>
   </si>
@@ -28,9 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复合函数求导：忽略内层幂函数的求导</t>
-  </si>
-  <si>
     <t>±号弄反：各种情况</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>跳步口算导致四则运算算错</t>
   </si>
   <si>
-    <t>应用题结尾没带单位</t>
-  </si>
-  <si>
     <t>主观臆断不去尝试：导致方向偏差</t>
   </si>
   <si>
@@ -52,10 +46,6 @@
     <t>求函数值代入出错：代错</t>
   </si>
   <si>
-    <t>应用题细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>局部中断，导致整体混乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,7 +118,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
+    <t>第六周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目表述细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +205,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,7 +510,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -512,13 +519,13 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="34.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -527,15 +534,20 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
@@ -543,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -557,6 +569,9 @@
       <c r="F2">
         <v>17</v>
       </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
@@ -565,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -577,7 +592,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -587,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -599,6 +617,9 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="2"/>
@@ -609,10 +630,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -621,7 +642,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
@@ -631,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -644,6 +668,9 @@
       </c>
       <c r="F6">
         <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
@@ -653,21 +680,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -675,19 +704,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -697,18 +729,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -719,19 +754,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -741,19 +779,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
@@ -763,19 +804,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -785,19 +829,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -807,61 +854,50 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <f>SUM(D2:D14)</f>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f>SUM(E2:E14)</f>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <f>SUM(F2:F14)</f>
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G2:G14)</f>
+        <v>8</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D2:D15)</f>
-        <v>54</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:F16" si="0">SUM(E2:E15)</f>
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -889,7 +925,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/马虎大意问题点总结.xlsx
+++ b/马虎大意问题点总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>错因</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>第七周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +514,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -548,7 +552,9 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2">
@@ -572,8 +578,12 @@
       <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="A3">
@@ -597,8 +607,12 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="A4">
@@ -622,8 +636,12 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5">
@@ -647,8 +665,12 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="A6">
@@ -672,8 +694,12 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7">
@@ -697,7 +723,12 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8">
@@ -721,8 +752,12 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
       <c r="A9">
@@ -746,8 +781,12 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
       <c r="A10">
@@ -771,8 +810,12 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11">
@@ -796,8 +839,12 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
       <c r="A12">
@@ -821,8 +868,12 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
       <c r="A13">
@@ -846,8 +897,12 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
       <c r="A14">
@@ -871,8 +926,12 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
       <c r="B15" t="s">
@@ -894,7 +953,10 @@
         <f>SUM(G2:G14)</f>
         <v>8</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15">
+        <f>SUM(H2:H14)</f>
+        <v>24</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
